--- a/欧洲预算.xlsx
+++ b/欧洲预算.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>航班号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,12 +278,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>项目预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>总预算
 （不含餐，购物）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目预算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -296,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="181" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,20 +348,64 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -366,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -380,35 +428,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -417,12 +447,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -430,6 +505,207 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -452,10 +728,56 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:I6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:I6"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="出发地" dataDxfId="13"/>
+    <tableColumn id="2" name="目的地" dataDxfId="12"/>
+    <tableColumn id="3" name="航班号" dataDxfId="11"/>
+    <tableColumn id="4" name="航空公司" dataDxfId="10"/>
+    <tableColumn id="5" name="登机日期" dataDxfId="9"/>
+    <tableColumn id="6" name="登机时间" dataDxfId="8"/>
+    <tableColumn id="7" name="到达时间" dataDxfId="7"/>
+    <tableColumn id="8" name="飞行时长" dataDxfId="6"/>
+    <tableColumn id="9" name="航站楼" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表7" displayName="表7" ref="A1:H14" totalsRowShown="0">
+  <autoFilter ref="A1:H14"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="出发地"/>
+    <tableColumn id="2" name="目的地"/>
+    <tableColumn id="3" name="出发时间"/>
+    <tableColumn id="4" name="到达时间"/>
+    <tableColumn id="5" name="出发车站"/>
+    <tableColumn id="6" name="到达车站"/>
+    <tableColumn id="7" name="备注"/>
+    <tableColumn id="8" name="价格"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A1:B9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="项目" dataDxfId="1"/>
+    <tableColumn id="2" name="项目预算" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="水汽尾迹">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="中性">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -463,39 +785,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="775F55"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="EBDDC3"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="94B6D2"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="DD8047"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5AB81"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="D8B25C"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="7BA79D"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="968C8C"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="F7B615"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="704404"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="水汽尾迹">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,7 +826,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -530,7 +852,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,7 +861,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -565,7 +887,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="水汽尾迹">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -574,66 +896,63 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="69000"/>
+                <a:alpha val="100000"/>
+                <a:satMod val="109000"/>
+                <a:lumMod val="110000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="52000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="74000"/>
+                <a:satMod val="100000"/>
+                <a:lumMod val="104000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="78000"/>
+                <a:satMod val="100000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="96000"/>
+                <a:satMod val="100000"/>
+                <a:lumMod val="104000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="78000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -642,28 +961,25 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="25400" h="12700"/>
+          </a:sp3d>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="48000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -671,12 +987,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="t"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="50800" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -684,56 +998,49 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:shade val="98000"/>
+                <a:satMod val="150000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:shade val="90000"/>
+                <a:satMod val="130000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Vapor Trail" id="{4FDF2955-7D9C-493C-B9F9-C205151B46CD}" vid="{8F31A783-2159-4870-BC29-2BA7D038EA44}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -742,12 +1049,12 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="37.125" customWidth="1"/>
+    <col min="2" max="2" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -1286,16 +1593,17 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9" style="7"/>
-    <col min="6" max="7" width="17.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="7"/>
+    <col min="4" max="5" width="10.25" style="7" customWidth="1"/>
+    <col min="6" max="7" width="17.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="7" customWidth="1"/>
     <col min="9" max="9" width="24.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -1326,7 +1634,7 @@
       <c r="I1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1"/>
@@ -1363,7 +1671,7 @@
       <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="15">
         <v>2679</v>
       </c>
       <c r="K2" s="1"/>
@@ -1378,7 +1686,7 @@
       <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1400,7 +1708,7 @@
       <c r="I3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1435,7 +1743,7 @@
       <c r="I4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="15">
         <v>2796</v>
       </c>
       <c r="K4" s="1"/>
@@ -1472,7 +1780,7 @@
       <c r="I5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1485,7 +1793,7 @@
       <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1501,13 +1809,13 @@
         <v>42396.545138888891</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" ref="H4:H6" si="0">G6-F6</f>
+        <f t="shared" ref="H6" si="0">G6-F6</f>
         <v>0.11111111110949423</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1948,7 +2256,7 @@
   </sheetData>
   <autoFilter ref="J2:J4">
     <filterColumn colId="0">
-      <colorFilter dxfId="1" cellColor="0"/>
+      <colorFilter dxfId="16" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="2">
@@ -1958,163 +2266,159 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="14">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20">
         <v>42750</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="D2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="21">
         <v>1604</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
+      <c r="A3" s="20">
         <v>42751</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
+      <c r="A4" s="20">
         <v>42752</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+      <c r="A5" s="20">
         <v>42753</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
+      <c r="A6" s="20">
         <v>42754</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="14">
+      <c r="A7" s="20">
         <v>42755</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="14">
+      <c r="A8" s="20">
         <v>42756</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="14">
+      <c r="A9" s="20">
         <v>42757</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="14">
+      <c r="A10" s="20">
         <v>42758</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="14">
+      <c r="A11" s="20">
         <v>42759</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="14">
+      <c r="A12" s="20">
         <v>42760</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="14">
+      <c r="A13" s="20">
         <v>42761</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E13">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0" cellColor="0"/>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
@@ -2134,10 +2438,13 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="6" width="10.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -2168,6 +2475,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2176,7 +2486,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2186,73 +2496,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="C1" s="13" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <f>国际机票!J2+国际机票!J4</f>
         <v>5475</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="17">
         <f>SUM(B2:B9)</f>
-        <v>7079</v>
+        <v>6896.666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <f>SUM(欧洲交通!H2:H16)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="2">
-        <f>SUM(住宿!E2:E13)</f>
-        <v>1604</v>
-      </c>
-      <c r="C4" s="13"/>
+      <c r="B4" s="14">
+        <f>SUM(住宿!E2:E13)/3</f>
+        <v>534.66666666666663</v>
+      </c>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3">
+        <f>120+699+68</f>
+        <v>887</v>
+      </c>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2260,5 +2575,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/欧洲预算.xlsx
+++ b/欧洲预算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一些地址" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>航班号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>咸阳机场 T3      戴高乐机场 2A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,10 +212,6 @@
   </si>
   <si>
     <t>Paris Roissy Charles de Gaulle Airport, BP 20101, 95711, Roissy Charles de Gaulle, France</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flughafen Berlin-Tegel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -292,6 +284,15 @@
   </si>
   <si>
     <t xml:space="preserve">  +33 684988578</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flughafen Berlin-Tegel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸阳机场 T3 
+戴高乐机场 2A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +304,7 @@
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,8 +365,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +392,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
@@ -410,17 +431,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -456,6 +477,9 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -468,25 +492,190 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="着色 5" xfId="2" builtinId="45"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="24">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -499,12 +688,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -690,24 +874,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
@@ -729,24 +895,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:I6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:I6"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="出发地" dataDxfId="13"/>
-    <tableColumn id="2" name="目的地" dataDxfId="12"/>
-    <tableColumn id="3" name="航班号" dataDxfId="11"/>
-    <tableColumn id="4" name="航空公司" dataDxfId="10"/>
-    <tableColumn id="5" name="登机日期" dataDxfId="9"/>
-    <tableColumn id="6" name="登机时间" dataDxfId="8"/>
-    <tableColumn id="7" name="到达时间" dataDxfId="7"/>
-    <tableColumn id="8" name="飞行时长" dataDxfId="6"/>
-    <tableColumn id="9" name="航站楼" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C27" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:C27"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="地点类别" dataDxfId="8"/>
+    <tableColumn id="2" name="地名" dataDxfId="7"/>
+    <tableColumn id="3" name="地址" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:I6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:I6"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="出发地" dataDxfId="20"/>
+    <tableColumn id="2" name="目的地" dataDxfId="19"/>
+    <tableColumn id="3" name="航班号" dataDxfId="18"/>
+    <tableColumn id="4" name="航空公司" dataDxfId="17"/>
+    <tableColumn id="5" name="登机日期" dataDxfId="0"/>
+    <tableColumn id="6" name="登机时间" dataDxfId="16"/>
+    <tableColumn id="7" name="到达时间" dataDxfId="15"/>
+    <tableColumn id="8" name="飞行时长" dataDxfId="14"/>
+    <tableColumn id="9" name="航站楼" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:A13" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A13"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="日期" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表7" displayName="表7" ref="A1:H14" totalsRowShown="0">
   <autoFilter ref="A1:H14"/>
   <tableColumns count="8">
@@ -763,12 +951,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A1:B9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A1:B9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:B9"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="项目" dataDxfId="1"/>
-    <tableColumn id="2" name="项目预算" dataDxfId="0"/>
+    <tableColumn id="1" name="项目" dataDxfId="10"/>
+    <tableColumn id="2" name="项目预算" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1048,542 +1236,589 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.25" customWidth="1"/>
+    <col min="1" max="16384" width="30.625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1592,49 +1827,51 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9" style="7"/>
-    <col min="4" max="5" width="10.25" style="7" customWidth="1"/>
-    <col min="6" max="7" width="17.25" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="7" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="13" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6"/>
+    <col min="4" max="5" width="10.25" style="6" customWidth="1"/>
+    <col min="6" max="7" width="17.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="24.75" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1"/>
@@ -1643,32 +1880,32 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>42383.829861111109</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>42383.940972222219</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <f>G2-F2</f>
         <v>0.11111111110949423</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="15">
@@ -1680,33 +1917,33 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="33" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>42383.041666666664</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>42384.222222222219</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <f>G3-F3+TIME(6,0,0)</f>
         <v>1.4305555555547471</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>40</v>
+      <c r="I3" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="1"/>
@@ -1715,32 +1952,32 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="33" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>1.26</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>42395.371527777781</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>42395.420138888891</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <f>G4-F4</f>
         <v>4.8611111109494232E-2</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="15">
@@ -1752,32 +1989,32 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="33" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>1.26</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>42395.53125</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>42396.288194444445</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <f>G5-F5-TIME(6,0,0)</f>
         <v>0.50694444444525288</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="15"/>
@@ -1787,32 +2024,32 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="33" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>1.27</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>42396.434027777781</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>42396.545138888891</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <f t="shared" ref="H6" si="0">G6-F6</f>
         <v>0.11111111110949423</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="16"/>
@@ -1822,432 +2059,432 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2256,7 +2493,7 @@
   </sheetData>
   <autoFilter ref="J2:J4">
     <filterColumn colId="0">
-      <colorFilter dxfId="16" cellColor="0"/>
+      <colorFilter dxfId="23" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="2">
@@ -2276,147 +2513,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6"/>
+    <col min="4" max="4" width="14" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
         <v>42750</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="21">
+      <c r="B2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="23">
         <v>1604</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="20">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
         <v>42751</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="20">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
         <v>42752</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="20">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
         <v>42753</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
         <v>42754</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="20">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
         <v>42755</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="20">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
         <v>42756</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="20">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
         <v>42757</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="20">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
         <v>42758</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="20">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
         <v>42759</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="20">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
         <v>42760</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="20">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
         <v>42761</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2430,6 +2671,9 @@
     <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2438,7 +2682,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2486,7 +2730,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2496,21 +2740,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2">
         <f>国际机票!J2+国际机票!J4</f>
         <v>5475</v>
       </c>
@@ -2520,53 +2764,53 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2">
         <f>SUM(欧洲交通!H2:H16)</f>
         <v>0</v>
       </c>
       <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="13">
         <f>SUM(住宿!E2:E13)/3</f>
         <v>534.66666666666663</v>
       </c>
       <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2">
         <f>120+699+68</f>
         <v>887</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="18"/>
     </row>
   </sheetData>

--- a/欧洲预算.xlsx
+++ b/欧洲预算.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="一些地址" sheetId="5" r:id="rId1"/>
     <sheet name="国际机票" sheetId="1" r:id="rId2"/>
     <sheet name="住宿" sheetId="2" r:id="rId3"/>
     <sheet name="欧洲交通" sheetId="3" r:id="rId4"/>
-    <sheet name="总表" sheetId="4" r:id="rId5"/>
+    <sheet name="签证" sheetId="6" r:id="rId5"/>
+    <sheet name="总表" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">国际机票!$J$2:$J$3</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>航班号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +294,38 @@
   <si>
     <t>咸阳机场 T3 
 戴高乐机场 2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签证费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店预定单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签证保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随身wifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警报器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +337,7 @@
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,14 +389,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -434,17 +459,14 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -471,25 +493,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -498,10 +505,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -510,13 +526,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="着色 5" xfId="2" builtinId="45"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -533,6 +663,13 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -581,113 +718,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -874,12 +904,100 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -895,40 +1013,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C27" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C27" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:C27"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="地点类别" dataDxfId="8"/>
-    <tableColumn id="2" name="地名" dataDxfId="7"/>
-    <tableColumn id="3" name="地址" dataDxfId="6"/>
+    <tableColumn id="1" name="地点类别" dataDxfId="25"/>
+    <tableColumn id="2" name="地名" dataDxfId="24"/>
+    <tableColumn id="3" name="地址" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:I6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:I6" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:I6"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="出发地" dataDxfId="20"/>
-    <tableColumn id="2" name="目的地" dataDxfId="19"/>
-    <tableColumn id="3" name="航班号" dataDxfId="18"/>
-    <tableColumn id="4" name="航空公司" dataDxfId="17"/>
-    <tableColumn id="5" name="登机日期" dataDxfId="0"/>
-    <tableColumn id="6" name="登机时间" dataDxfId="16"/>
-    <tableColumn id="7" name="到达时间" dataDxfId="15"/>
-    <tableColumn id="8" name="飞行时长" dataDxfId="14"/>
-    <tableColumn id="9" name="航站楼" dataDxfId="13"/>
+    <tableColumn id="1" name="出发地" dataDxfId="19"/>
+    <tableColumn id="2" name="目的地" dataDxfId="18"/>
+    <tableColumn id="3" name="航班号" dataDxfId="17"/>
+    <tableColumn id="4" name="航空公司" dataDxfId="16"/>
+    <tableColumn id="5" name="登机日期" dataDxfId="15"/>
+    <tableColumn id="6" name="登机时间" dataDxfId="14"/>
+    <tableColumn id="7" name="到达时间" dataDxfId="13"/>
+    <tableColumn id="8" name="飞行时长" dataDxfId="12"/>
+    <tableColumn id="9" name="航站楼" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:A13" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:A13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:A13"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="日期" dataDxfId="3"/>
+    <tableColumn id="1" name="日期" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -952,11 +1070,22 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A1:B9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:B12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:B12"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="项目" dataDxfId="5"/>
+    <tableColumn id="2" name="预算" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A1:B9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B9"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="项目" dataDxfId="10"/>
-    <tableColumn id="2" name="项目预算" dataDxfId="9"/>
+    <tableColumn id="1" name="项目" dataDxfId="1"/>
+    <tableColumn id="2" name="项目预算" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1237,581 +1366,582 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="30.625" style="19"/>
+    <col min="1" max="1" width="9.75" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="30.625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="14"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
     </row>
     <row r="58" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
     </row>
     <row r="59" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
     </row>
     <row r="61" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
     </row>
     <row r="65" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
     </row>
     <row r="67" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
     </row>
     <row r="68" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
     </row>
     <row r="69" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
     </row>
     <row r="70" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
     </row>
     <row r="71" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
     </row>
     <row r="72" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
     </row>
     <row r="73" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
     </row>
     <row r="74" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
     </row>
     <row r="75" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
     </row>
     <row r="76" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
     </row>
     <row r="77" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
     </row>
     <row r="78" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
     </row>
     <row r="79" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
     </row>
     <row r="81" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
     </row>
     <row r="83" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1827,51 +1957,51 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="5" width="10.25" style="6" customWidth="1"/>
-    <col min="6" max="7" width="17.25" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="5" width="10.25" style="5" customWidth="1"/>
+    <col min="6" max="7" width="17.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="24.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1"/>
@@ -1880,35 +2010,35 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>42383.829861111109</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>42383.940972222219</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <f>G2-F2</f>
         <v>0.11111111110949423</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="18">
         <v>2679</v>
       </c>
       <c r="K2" s="1"/>
@@ -1917,70 +2047,70 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="33" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>42383.041666666664</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>42384.222222222219</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <f>G3-F3+TIME(6,0,0)</f>
         <v>1.4305555555547471</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="33" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>1.26</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>42395.371527777781</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>42395.420138888891</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <f>G4-F4</f>
         <v>4.8611111109494232E-2</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="18">
         <v>2796</v>
       </c>
       <c r="K4" s="1"/>
@@ -1989,502 +2119,502 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="33" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>1.26</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>42395.53125</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>42396.288194444445</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <f>G5-F5-TIME(6,0,0)</f>
         <v>0.50694444444525288</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="33" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>1.27</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>42396.434027777781</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>42396.545138888891</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <f t="shared" ref="H6" si="0">G6-F6</f>
         <v>0.11111111110949423</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="16"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2493,7 +2623,7 @@
   </sheetData>
   <autoFilter ref="J2:J4">
     <filterColumn colId="0">
-      <colorFilter dxfId="23" cellColor="0"/>
+      <colorFilter dxfId="22" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="2">
@@ -2514,150 +2644,150 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="14" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="10.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="14" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="16">
         <v>42750</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="20">
         <v>1604</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
+      <c r="A3" s="16">
         <v>42751</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="16">
         <v>42752</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="16">
         <v>42753</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="16">
         <v>42754</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="A7" s="16">
         <v>42755</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="16">
         <v>42756</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+      <c r="A9" s="16">
         <v>42757</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="A10" s="16">
         <v>42758</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="16">
         <v>42759</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="A12" s="16">
         <v>42760</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="A13" s="16">
         <v>42761</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2671,8 +2801,9 @@
     <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2681,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2727,91 +2858,167 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="17">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="17">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="12" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="12">
         <f>国际机票!J2+国际机票!J4</f>
         <v>5475</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="22">
         <f>SUM(B2:B9)</f>
-        <v>6896.666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+        <v>7311.666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="12">
         <f>SUM(欧洲交通!H2:H16)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="23"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <f>SUM(住宿!E2:E13)/3</f>
         <v>534.66666666666663</v>
       </c>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="2">
-        <f>120+699+68</f>
-        <v>887</v>
-      </c>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="18"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="18"/>
+      <c r="B5" s="12">
+        <f>SUM(签证!B2:B14)</f>
+        <v>1127</v>
+      </c>
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="12">
+        <v>175</v>
+      </c>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="23"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/欧洲预算.xlsx
+++ b/欧洲预算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="一些地址" sheetId="5" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="住宿" sheetId="2" r:id="rId3"/>
     <sheet name="欧洲交通" sheetId="3" r:id="rId4"/>
     <sheet name="签证" sheetId="6" r:id="rId5"/>
-    <sheet name="总表" sheetId="4" r:id="rId6"/>
+    <sheet name="押金" sheetId="7" r:id="rId6"/>
+    <sheet name="总表" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">国际机票!$J$2:$J$3</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>航班号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +327,14 @@
   </si>
   <si>
     <t>警报器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴黎住宿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -514,6 +523,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -538,7 +550,67 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="着色 5" xfId="2" builtinId="45"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1013,40 +1085,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C27" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C27" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:C27"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="地点类别" dataDxfId="25"/>
-    <tableColumn id="2" name="地名" dataDxfId="24"/>
-    <tableColumn id="3" name="地址" dataDxfId="23"/>
+    <tableColumn id="1" name="地点类别" dataDxfId="29"/>
+    <tableColumn id="2" name="地名" dataDxfId="28"/>
+    <tableColumn id="3" name="地址" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:I6" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:I6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:I6"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="出发地" dataDxfId="19"/>
-    <tableColumn id="2" name="目的地" dataDxfId="18"/>
-    <tableColumn id="3" name="航班号" dataDxfId="17"/>
-    <tableColumn id="4" name="航空公司" dataDxfId="16"/>
-    <tableColumn id="5" name="登机日期" dataDxfId="15"/>
-    <tableColumn id="6" name="登机时间" dataDxfId="14"/>
-    <tableColumn id="7" name="到达时间" dataDxfId="13"/>
-    <tableColumn id="8" name="飞行时长" dataDxfId="12"/>
-    <tableColumn id="9" name="航站楼" dataDxfId="11"/>
+    <tableColumn id="1" name="出发地" dataDxfId="23"/>
+    <tableColumn id="2" name="目的地" dataDxfId="22"/>
+    <tableColumn id="3" name="航班号" dataDxfId="21"/>
+    <tableColumn id="4" name="航空公司" dataDxfId="20"/>
+    <tableColumn id="5" name="登机日期" dataDxfId="19"/>
+    <tableColumn id="6" name="登机时间" dataDxfId="18"/>
+    <tableColumn id="7" name="到达时间" dataDxfId="17"/>
+    <tableColumn id="8" name="飞行时长" dataDxfId="16"/>
+    <tableColumn id="9" name="航站楼" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:A13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:A13" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:A13"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="日期" dataDxfId="8"/>
+    <tableColumn id="1" name="日期" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1070,22 +1142,33 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:B12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:B12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:B12"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="项目" dataDxfId="5"/>
-    <tableColumn id="2" name="预算" dataDxfId="4"/>
+    <tableColumn id="1" name="项目" dataDxfId="9"/>
+    <tableColumn id="2" name="预算" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A1:B9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:B12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:B12"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="项目" dataDxfId="3"/>
+    <tableColumn id="2" name="价格" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A1:B9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:B9"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="项目" dataDxfId="1"/>
-    <tableColumn id="2" name="项目预算" dataDxfId="0"/>
+    <tableColumn id="1" name="项目" dataDxfId="5"/>
+    <tableColumn id="2" name="项目预算" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1365,17 +1448,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="30.625" style="13"/>
+    <col min="1" max="1" width="9.77734375" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="30.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
@@ -1387,7 +1470,7 @@
       </c>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>44</v>
       </c>
@@ -1399,7 +1482,7 @@
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>44</v>
       </c>
@@ -1411,7 +1494,7 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>44</v>
       </c>
@@ -1421,7 +1504,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>48</v>
       </c>
@@ -1431,7 +1514,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
@@ -1441,7 +1524,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>48</v>
       </c>
@@ -1449,7 +1532,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>48</v>
       </c>
@@ -1457,7 +1540,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>48</v>
       </c>
@@ -1465,7 +1548,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>48</v>
       </c>
@@ -1473,7 +1556,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>48</v>
       </c>
@@ -1481,7 +1564,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>48</v>
       </c>
@@ -1489,7 +1572,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>48</v>
       </c>
@@ -1497,7 +1580,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -1505,7 +1588,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>48</v>
       </c>
@@ -1513,7 +1596,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>48</v>
       </c>
@@ -1521,7 +1604,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>48</v>
       </c>
@@ -1529,7 +1612,7 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>48</v>
       </c>
@@ -1537,7 +1620,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>48</v>
       </c>
@@ -1545,7 +1628,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
@@ -1553,7 +1636,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>49</v>
       </c>
@@ -1561,7 +1644,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>49</v>
       </c>
@@ -1569,7 +1652,7 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>49</v>
       </c>
@@ -1577,7 +1660,7 @@
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>49</v>
       </c>
@@ -1585,7 +1668,7 @@
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>49</v>
       </c>
@@ -1593,7 +1676,7 @@
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>49</v>
       </c>
@@ -1601,343 +1684,343 @@
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
     </row>
-    <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
     </row>
-    <row r="54" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
     </row>
-    <row r="55" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
     </row>
-    <row r="56" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
     </row>
-    <row r="57" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
     </row>
-    <row r="58" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
     </row>
-    <row r="59" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
     </row>
-    <row r="60" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
     </row>
-    <row r="61" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
     </row>
-    <row r="62" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
     </row>
-    <row r="63" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
     </row>
-    <row r="64" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
     </row>
-    <row r="65" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
     </row>
-    <row r="66" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
     </row>
-    <row r="67" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
     </row>
-    <row r="68" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
     </row>
-    <row r="69" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
     </row>
-    <row r="70" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
     </row>
-    <row r="71" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
     </row>
-    <row r="72" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
     </row>
-    <row r="73" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
     </row>
-    <row r="74" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
     </row>
-    <row r="75" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
     </row>
-    <row r="76" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
     </row>
-    <row r="77" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
     </row>
-    <row r="78" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
     </row>
-    <row r="79" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
     </row>
-    <row r="80" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
     </row>
-    <row r="81" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
     </row>
-    <row r="82" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
     </row>
-    <row r="83" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -1957,23 +2040,23 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="5" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="5" width="10.25" style="5" customWidth="1"/>
-    <col min="6" max="7" width="17.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.21875" style="5" customWidth="1"/>
+    <col min="6" max="7" width="17.21875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="24.77734375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -2009,7 +2092,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -2038,7 +2121,7 @@
       <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="19">
         <v>2679</v>
       </c>
       <c r="K2" s="1"/>
@@ -2046,7 +2129,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -2075,13 +2158,13 @@
       <c r="I3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -2110,7 +2193,7 @@
       <c r="I4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="19">
         <v>2796</v>
       </c>
       <c r="K4" s="1"/>
@@ -2118,7 +2201,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -2147,13 +2230,13 @@
       <c r="I5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
@@ -2182,13 +2265,13 @@
       <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2204,7 +2287,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2220,7 +2303,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2236,7 +2319,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2252,7 +2335,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2268,7 +2351,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2284,7 +2367,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2300,7 +2383,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2316,7 +2399,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2332,7 +2415,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2348,7 +2431,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2364,7 +2447,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2380,7 +2463,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2396,7 +2479,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2412,7 +2495,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2428,7 +2511,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2444,7 +2527,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2460,7 +2543,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2476,7 +2559,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2492,7 +2575,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2508,7 +2591,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2524,7 +2607,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2540,7 +2623,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2556,7 +2639,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2572,7 +2655,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2588,7 +2671,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2604,7 +2687,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2623,7 +2706,7 @@
   </sheetData>
   <autoFilter ref="J2:J4">
     <filterColumn colId="0">
-      <colorFilter dxfId="22" cellColor="0"/>
+      <colorFilter dxfId="26" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="2">
@@ -2641,22 +2724,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5"/>
+    <col min="1" max="1" width="22.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="5" customWidth="1"/>
     <col min="4" max="4" width="14" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2673,87 +2756,89 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>42750</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="21">
         <v>1604</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>42751</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>42752</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>42753</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>42754</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="21">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>42755</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>42756</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>42757</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>42758</v>
       </c>
@@ -2762,7 +2847,7 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
         <v>42759</v>
       </c>
@@ -2771,7 +2856,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>42760</v>
       </c>
@@ -2780,21 +2865,25 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>42761</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2816,12 +2905,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="10.25" customWidth="1"/>
+    <col min="3" max="6" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2864,12 +2953,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>56</v>
       </c>
@@ -2877,7 +2966,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>66</v>
       </c>
@@ -2885,12 +2974,12 @@
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>68</v>
       </c>
@@ -2898,7 +2987,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>69</v>
       </c>
@@ -2906,7 +2995,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>71</v>
       </c>
@@ -2926,21 +3015,98 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="12" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="5" customWidth="1"/>
     <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="48.6" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
@@ -2951,7 +3117,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>57</v>
       </c>
@@ -2959,12 +3125,12 @@
         <f>国际机票!J2+国际机票!J4</f>
         <v>5475</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="23">
         <f>SUM(B2:B9)</f>
-        <v>7311.666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7608.333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>58</v>
       </c>
@@ -2972,19 +3138,19 @@
         <f>SUM(欧洲交通!H2:H16)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="23"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="11">
         <f>SUM(住宿!E2:E13)/3</f>
-        <v>534.66666666666663</v>
-      </c>
-      <c r="C4" s="23"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>831.33333333333337</v>
+      </c>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
@@ -2992,33 +3158,33 @@
         <f>SUM(签证!B2:B14)</f>
         <v>1127</v>
       </c>
-      <c r="C5" s="23"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="12">
         <v>175</v>
       </c>
-      <c r="C6" s="23"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="23"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="23"/>
+      <c r="C9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
